--- a/results/results_between_group.xlsx
+++ b/results/results_between_group.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,86 +439,40 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.0419962664730224</v>
+        <v>0.04233857676228827</v>
       </c>
       <c r="D2">
-        <v>0.294708521976402</v>
+        <v>0.2991156200310425</v>
       </c>
       <c r="E2">
-        <v>-0.5241497701404344</v>
+        <v>-0.514295444258111</v>
       </c>
       <c r="F2">
-        <v>0.6026235554305454</v>
+        <v>0.6123727241787722</v>
       </c>
       <c r="G2">
-        <v>0.07299245732319087</v>
+        <v>0.07290973724482093</v>
       </c>
       <c r="H2">
-        <v>4.082290113051127e-09</v>
+        <v>3.494155105235397e-09</v>
       </c>
       <c r="I2">
-        <v>0.5971869795877827</v>
+        <v>0.6010846873302796</v>
       </c>
       <c r="J2">
-        <v>0.1245282942344346</v>
+        <v>0.1244521596892637</v>
       </c>
       <c r="K2">
-        <v>2.835435109566623e-05</v>
+        <v>1.591136482753043e-07</v>
       </c>
       <c r="L2">
-        <v>0.5493125285634581</v>
+        <v>0.5514895390056022</v>
       </c>
       <c r="M2">
-        <v>-1.334586415119028</v>
+        <v>-1.351604666121441</v>
       </c>
       <c r="N2">
-        <v>1.418578948065073</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Between-Group Effects</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.0419962664730224</v>
-      </c>
-      <c r="D3">
-        <v>0.294708521976402</v>
-      </c>
-      <c r="E3">
-        <v>-0.5241497701404344</v>
-      </c>
-      <c r="F3">
-        <v>0.6026235554305454</v>
-      </c>
-      <c r="G3">
-        <v>0.07299245732319087</v>
-      </c>
-      <c r="H3">
-        <v>4.082290113051127e-09</v>
-      </c>
-      <c r="I3">
-        <v>0.5971869795877827</v>
-      </c>
-      <c r="J3">
-        <v>0.1245282942344346</v>
-      </c>
-      <c r="K3">
-        <v>0.5622211103632558</v>
-      </c>
-      <c r="L3">
-        <v>0.5653777758493334</v>
-      </c>
-      <c r="M3">
-        <v>-1.334586415119028</v>
-      </c>
-      <c r="N3">
-        <v>1.418578948065073</v>
+        <v>1.436281819646018</v>
       </c>
     </row>
   </sheetData>
